--- a/test/sol/result.xlsx
+++ b/test/sol/result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Offiner\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Offiner\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ADCABE-5F5F-4E2B-8DF7-0AA26D2338BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0E359F-4DFC-4ADB-BC06-97B6A1F1677A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4300" uniqueCount="171">
   <si>
     <t>Testcase</t>
   </si>
@@ -468,12 +468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>62ms</t>
-  </si>
-  <si>
-    <t>47ms</t>
-  </si>
-  <si>
     <t>57ms</t>
   </si>
   <si>
@@ -483,46 +477,16 @@
     <t>58ms</t>
   </si>
   <si>
-    <t>25ms</t>
-  </si>
-  <si>
-    <t>18ms</t>
-  </si>
-  <si>
-    <t>28ms</t>
+    <t>46ms</t>
+  </si>
+  <si>
+    <t>64ms</t>
+  </si>
+  <si>
+    <t>40ms</t>
   </si>
   <si>
     <t>38ms</t>
-  </si>
-  <si>
-    <t>49ms</t>
-  </si>
-  <si>
-    <t>46ms</t>
-  </si>
-  <si>
-    <t>50ms</t>
-  </si>
-  <si>
-    <t>42ms</t>
-  </si>
-  <si>
-    <t>64ms</t>
-  </si>
-  <si>
-    <t>36ms</t>
-  </si>
-  <si>
-    <t>40ms</t>
-  </si>
-  <si>
-    <t>39ms</t>
-  </si>
-  <si>
-    <t>44ms</t>
-  </si>
-  <si>
-    <t>38ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -534,37 +498,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>78ms</t>
-  </si>
-  <si>
-    <t>24ms</t>
-  </si>
-  <si>
-    <t>31ms</t>
-  </si>
-  <si>
-    <t>29ms</t>
-  </si>
-  <si>
     <t>53ms</t>
   </si>
   <si>
-    <t>23ms</t>
-  </si>
-  <si>
     <t>51ms</t>
   </si>
   <si>
-    <t>41ms</t>
-  </si>
-  <si>
     <t>33ms</t>
   </si>
   <si>
-    <t>20ms</t>
-  </si>
-  <si>
     <t>Q6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>129ms</t>
+  </si>
+  <si>
+    <t>43ms</t>
+  </si>
+  <si>
+    <t>111ms</t>
+  </si>
+  <si>
+    <t>85ms</t>
+  </si>
+  <si>
+    <t>102ms</t>
+  </si>
+  <si>
+    <t>108ms</t>
+  </si>
+  <si>
+    <t>89ms</t>
+  </si>
+  <si>
+    <t>75ms</t>
+  </si>
+  <si>
+    <t>93ms</t>
+  </si>
+  <si>
+    <t>56ms</t>
+  </si>
+  <si>
+    <t>55ms</t>
+  </si>
+  <si>
+    <t>94ms</t>
+  </si>
+  <si>
+    <t>115ms</t>
+  </si>
+  <si>
+    <t>81ms</t>
+  </si>
+  <si>
+    <t>45ms</t>
+  </si>
+  <si>
+    <t>74ms</t>
+  </si>
+  <si>
+    <t>100ms</t>
+  </si>
+  <si>
+    <t>79ms</t>
+  </si>
+  <si>
+    <t>95ms</t>
+  </si>
+  <si>
+    <t>65ms</t>
+  </si>
+  <si>
+    <t>80ms</t>
+  </si>
+  <si>
+    <t>77ms</t>
+  </si>
+  <si>
+    <t>112ms</t>
+  </si>
+  <si>
+    <t>21ms</t>
+  </si>
+  <si>
+    <t>66ms</t>
+  </si>
+  <si>
+    <t>63ms</t>
+  </si>
+  <si>
+    <t>101ms</t>
+  </si>
+  <si>
+    <t>76ms</t>
+  </si>
+  <si>
+    <t>104ms</t>
+  </si>
+  <si>
+    <t>22ms</t>
+  </si>
+  <si>
+    <t>71ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,6 +710,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -978,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="W62" sqref="W62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -990,71 +1036,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="E7" s="7" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="E7" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="I7" s="7" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="I7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="M7" s="7" t="s">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="M7" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="Q7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="U7" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="Q7" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="U7" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1102,13 +1148,13 @@
       <c r="S8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="U8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="V8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="W8" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1158,14 +1204,14 @@
       <c r="S9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="U9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="V9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>148</v>
+      <c r="V9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1214,14 +1260,14 @@
       <c r="S10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="U10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="V10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>149</v>
+      <c r="V10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1270,14 +1316,14 @@
       <c r="S11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="U11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="V11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>140</v>
+      <c r="V11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -1326,14 +1372,14 @@
       <c r="S12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="U12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="V12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>139</v>
+      <c r="V12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -1382,14 +1428,14 @@
       <c r="S13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="U13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="V13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>129</v>
+      <c r="V13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1438,14 +1484,14 @@
       <c r="S14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="U14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="V14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>140</v>
+      <c r="V14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -1494,14 +1540,14 @@
       <c r="S15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="U15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="V15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>128</v>
+      <c r="V15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -1550,14 +1596,14 @@
       <c r="S16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="U16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="V16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W16" s="4" t="s">
-        <v>134</v>
+      <c r="V16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -1606,14 +1652,14 @@
       <c r="S17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="U17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="V17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>134</v>
+      <c r="V17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -1662,14 +1708,14 @@
       <c r="S18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="U18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="V18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W18" s="4" t="s">
-        <v>130</v>
+      <c r="V18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -1718,14 +1764,14 @@
       <c r="S19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U19" s="4" t="s">
+      <c r="U19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="V19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>136</v>
+      <c r="V19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -1774,14 +1820,14 @@
       <c r="S20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U20" s="4" t="s">
+      <c r="U20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="V20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W20" s="4" t="s">
-        <v>141</v>
+      <c r="V20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W20" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -1830,14 +1876,14 @@
       <c r="S21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U21" s="4" t="s">
+      <c r="U21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="V21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W21" s="4" t="s">
-        <v>150</v>
+      <c r="V21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W21" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -1886,14 +1932,14 @@
       <c r="S22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U22" s="4" t="s">
+      <c r="U22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="V22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>134</v>
+      <c r="V22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W22" s="8" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -1942,14 +1988,14 @@
       <c r="S23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U23" s="4" t="s">
+      <c r="U23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="V23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>151</v>
+      <c r="V23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W23" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -1998,14 +2044,14 @@
       <c r="S24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U24" s="4" t="s">
+      <c r="U24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="V24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W24" s="4" t="s">
-        <v>152</v>
+      <c r="V24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W24" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -2054,14 +2100,14 @@
       <c r="S25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U25" s="4" t="s">
+      <c r="U25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="V25" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W25" s="4" t="s">
-        <v>127</v>
+      <c r="V25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W25" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -2101,14 +2147,14 @@
       <c r="S26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U26" s="4" t="s">
+      <c r="U26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="V26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W26" s="4" t="s">
-        <v>139</v>
+      <c r="V26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W26" s="8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -2148,14 +2194,14 @@
       <c r="S27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U27" s="4" t="s">
+      <c r="U27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="V27" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W27" s="4" t="s">
-        <v>137</v>
+      <c r="V27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W27" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -2195,14 +2241,14 @@
       <c r="S28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U28" s="4" t="s">
+      <c r="U28" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V28" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W28" s="4" t="s">
-        <v>153</v>
+      <c r="V28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W28" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -2242,14 +2288,14 @@
       <c r="S29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="U29" s="4" t="s">
+      <c r="U29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="V29" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W29" s="4" t="s">
-        <v>143</v>
+      <c r="V29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W29" s="8" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -2289,14 +2335,14 @@
       <c r="S30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U30" s="4" t="s">
+      <c r="U30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="V30" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W30" s="4" t="s">
-        <v>154</v>
+      <c r="V30" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W30" s="8" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -2336,14 +2382,14 @@
       <c r="S31" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U31" s="4" t="s">
+      <c r="U31" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="V31" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W31" s="4" t="s">
-        <v>139</v>
+      <c r="V31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W31" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -2383,14 +2429,14 @@
       <c r="S32" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U32" s="4" t="s">
+      <c r="U32" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="V32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W32" s="4" t="s">
-        <v>138</v>
+      <c r="V32" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W32" s="8" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
@@ -2430,14 +2476,14 @@
       <c r="S33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U33" s="4" t="s">
+      <c r="U33" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V33" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W33" s="4" t="s">
-        <v>141</v>
+      <c r="V33" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W33" s="8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -2477,14 +2523,14 @@
       <c r="S34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U34" s="4" t="s">
+      <c r="U34" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="V34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W34" s="4" t="s">
-        <v>155</v>
+      <c r="V34" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W34" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
@@ -2524,14 +2570,14 @@
       <c r="S35" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U35" s="4" t="s">
+      <c r="U35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="V35" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W35" s="4" t="s">
-        <v>142</v>
+      <c r="V35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W35" s="8" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
@@ -2571,14 +2617,14 @@
       <c r="S36" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U36" s="4" t="s">
+      <c r="U36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="V36" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W36" s="4" t="s">
-        <v>155</v>
+      <c r="V36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W36" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
@@ -2618,14 +2664,14 @@
       <c r="S37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U37" s="4" t="s">
+      <c r="U37" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="V37" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W37" s="4" t="s">
-        <v>144</v>
+      <c r="V37" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W37" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -2665,14 +2711,14 @@
       <c r="S38" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U38" s="4" t="s">
+      <c r="U38" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="V38" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W38" s="4" t="s">
-        <v>140</v>
+      <c r="V38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W38" s="8" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
@@ -2712,14 +2758,14 @@
       <c r="S39" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U39" s="4" t="s">
+      <c r="U39" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="V39" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W39" s="4" t="s">
-        <v>135</v>
+      <c r="V39" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W39" s="8" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
@@ -2759,14 +2805,14 @@
       <c r="S40" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U40" s="4" t="s">
+      <c r="U40" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="V40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W40" s="4" t="s">
-        <v>59</v>
+      <c r="V40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W40" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -2806,14 +2852,14 @@
       <c r="S41" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U41" s="4" t="s">
+      <c r="U41" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W41" s="4" t="s">
-        <v>150</v>
+      <c r="V41" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W41" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
@@ -2853,14 +2899,14 @@
       <c r="S42" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U42" s="4" t="s">
+      <c r="U42" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="V42" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W42" s="4" t="s">
-        <v>141</v>
+      <c r="V42" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W42" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
@@ -2900,14 +2946,14 @@
       <c r="S43" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U43" s="4" t="s">
+      <c r="U43" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V43" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W43" s="4" t="s">
-        <v>132</v>
+      <c r="V43" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W43" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -2947,14 +2993,14 @@
       <c r="S44" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U44" s="4" t="s">
+      <c r="U44" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="V44" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W44" s="4" t="s">
-        <v>156</v>
+      <c r="V44" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W44" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
@@ -2994,14 +3040,14 @@
       <c r="S45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U45" s="4" t="s">
+      <c r="U45" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V45" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W45" s="4" t="s">
-        <v>151</v>
+      <c r="V45" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W45" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
@@ -3041,14 +3087,14 @@
       <c r="S46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U46" s="4" t="s">
+      <c r="U46" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="V46" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W46" s="4" t="s">
-        <v>156</v>
+      <c r="V46" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W46" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
@@ -3088,14 +3134,14 @@
       <c r="S47" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U47" s="4" t="s">
+      <c r="U47" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="V47" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W47" s="4" t="s">
-        <v>133</v>
+      <c r="V47" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W47" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
@@ -3135,14 +3181,14 @@
       <c r="S48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U48" s="4" t="s">
+      <c r="U48" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="V48" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W48" s="4" t="s">
-        <v>131</v>
+      <c r="V48" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W48" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -3182,14 +3228,14 @@
       <c r="S49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U49" s="4" t="s">
+      <c r="U49" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="V49" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W49" s="4" t="s">
-        <v>153</v>
+      <c r="V49" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W49" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -3229,14 +3275,14 @@
       <c r="S50" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U50" s="4" t="s">
+      <c r="U50" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="V50" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W50" s="4" t="s">
-        <v>134</v>
+      <c r="V50" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W50" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -3276,14 +3322,14 @@
       <c r="S51" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U51" s="4" t="s">
+      <c r="U51" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="V51" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W51" s="4" t="s">
-        <v>157</v>
+      <c r="V51" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W51" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
@@ -3323,14 +3369,14 @@
       <c r="S52" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U52" s="4" t="s">
+      <c r="U52" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V52" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W52" s="4" t="s">
-        <v>149</v>
+      <c r="V52" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W52" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
@@ -3370,14 +3416,14 @@
       <c r="S53" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U53" s="4" t="s">
+      <c r="U53" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="V53" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W53" s="4" t="s">
-        <v>150</v>
+      <c r="V53" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W53" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
@@ -3417,14 +3463,14 @@
       <c r="S54" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U54" s="4" t="s">
+      <c r="U54" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="V54" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W54" s="4" t="s">
-        <v>130</v>
+      <c r="V54" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W54" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -3464,14 +3510,14 @@
       <c r="S55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U55" s="4" t="s">
+      <c r="U55" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="V55" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W55" s="4" t="s">
-        <v>157</v>
+      <c r="V55" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W55" s="8" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -3511,14 +3557,14 @@
       <c r="S56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U56" s="4" t="s">
+      <c r="U56" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="V56" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W56" s="4" t="s">
-        <v>67</v>
+      <c r="V56" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W56" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -3558,14 +3604,14 @@
       <c r="S57" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U57" s="4" t="s">
+      <c r="U57" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="V57" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W57" s="4" t="s">
-        <v>131</v>
+      <c r="V57" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W57" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
@@ -3605,166 +3651,167 @@
       <c r="S58" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U58" s="4" t="s">
+      <c r="U58" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="V58" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W58" s="4" t="s">
-        <v>59</v>
+      <c r="V58" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W58" s="8" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="E60" s="7" t="s">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="E60" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="M60" s="7" t="s">
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="M60" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="Q60" s="7" t="s">
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="Q60" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="U60" s="7" t="s">
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="U60" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="V60" s="7"/>
-      <c r="W60" s="7"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="8"/>
+      <c r="B61" s="11"/>
       <c r="C61" s="3">
         <v>1</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F61" s="8"/>
+      <c r="F61" s="11"/>
       <c r="G61" s="3">
         <v>1</v>
       </c>
-      <c r="M61" s="8" t="s">
+      <c r="M61" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="N61" s="8"/>
+      <c r="N61" s="11"/>
       <c r="O61" s="3">
         <v>1</v>
       </c>
-      <c r="Q61" s="8" t="s">
+      <c r="Q61" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="R61" s="8"/>
+      <c r="R61" s="11"/>
       <c r="S61" s="3">
         <v>1</v>
       </c>
-      <c r="U61" s="8" t="s">
+      <c r="U61" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="V61" s="8"/>
+      <c r="V61" s="11"/>
       <c r="W61" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="8"/>
+      <c r="B62" s="11"/>
       <c r="C62" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F62" s="8"/>
+      <c r="F62" s="11"/>
       <c r="G62" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="M62" s="8" t="s">
+      <c r="M62" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="N62" s="8"/>
+      <c r="N62" s="11"/>
       <c r="O62" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q62" s="8" t="s">
+      <c r="Q62" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="R62" s="8"/>
+      <c r="R62" s="11"/>
       <c r="S62" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="U62" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="U62" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="V62" s="8"/>
+      <c r="V62" s="11"/>
       <c r="W62" s="4" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="8"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F63" s="8"/>
+      <c r="F63" s="11"/>
       <c r="G63" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="M63" s="8" t="s">
+      <c r="M63" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="N63" s="8"/>
+      <c r="N63" s="11"/>
       <c r="O63" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q63" s="8" t="s">
+      <c r="Q63" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="R63" s="8"/>
+      <c r="R63" s="11"/>
       <c r="S63" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="U63" s="8" t="s">
+      <c r="U63" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="V63" s="8"/>
+      <c r="V63" s="11"/>
       <c r="W63" s="4" t="s">
         <v>120</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="U60:W60"/>
-    <mergeCell ref="U61:V61"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="U63:V63"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="Q60:S60"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="M60:O60"/>
     <mergeCell ref="M62:N62"/>
     <mergeCell ref="M63:N63"/>
     <mergeCell ref="A62:B62"/>
@@ -3775,17 +3822,16 @@
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="M61:N61"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q60:S60"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="U60:W60"/>
+    <mergeCell ref="U61:V61"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="U63:V63"/>
+    <mergeCell ref="U7:W7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
